--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.528161333333333</v>
+        <v>2.738607</v>
       </c>
       <c r="H2">
-        <v>13.584484</v>
+        <v>8.215821</v>
       </c>
       <c r="I2">
-        <v>0.3225352762763812</v>
+        <v>0.2235648590725649</v>
       </c>
       <c r="J2">
-        <v>0.3225352762763812</v>
+        <v>0.223564859072565</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.890486333333333</v>
+        <v>0.07058066666666667</v>
       </c>
       <c r="N2">
-        <v>5.671459</v>
+        <v>0.211742</v>
       </c>
       <c r="O2">
-        <v>0.9442400689667343</v>
+        <v>0.03405243646146196</v>
       </c>
       <c r="P2">
-        <v>0.9442400689667344</v>
+        <v>0.03405243646146196</v>
       </c>
       <c r="Q2">
-        <v>8.560427115795111</v>
+        <v>0.193292707798</v>
       </c>
       <c r="R2">
-        <v>77.04384404215601</v>
+        <v>1.739634370182</v>
       </c>
       <c r="S2">
-        <v>0.3045507315154149</v>
+        <v>0.007612928158584214</v>
       </c>
       <c r="T2">
-        <v>0.304550731515415</v>
+        <v>0.007612928158584217</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.528161333333333</v>
+        <v>2.738607</v>
       </c>
       <c r="H3">
-        <v>13.584484</v>
+        <v>8.215821</v>
       </c>
       <c r="I3">
-        <v>0.3225352762763812</v>
+        <v>0.2235648590725649</v>
       </c>
       <c r="J3">
-        <v>0.3225352762763812</v>
+        <v>0.223564859072565</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1116383333333333</v>
+        <v>1.890486333333333</v>
       </c>
       <c r="N3">
-        <v>0.334915</v>
+        <v>5.671459</v>
       </c>
       <c r="O3">
-        <v>0.05575993103326565</v>
+        <v>0.9120863940138783</v>
       </c>
       <c r="P3">
-        <v>0.05575993103326566</v>
+        <v>0.9120863940138783</v>
       </c>
       <c r="Q3">
-        <v>0.5055163843177778</v>
+        <v>5.177299105871001</v>
       </c>
       <c r="R3">
-        <v>4.54964745886</v>
+        <v>46.595691952839</v>
       </c>
       <c r="S3">
-        <v>0.0179845447609663</v>
+        <v>0.2039104661397166</v>
       </c>
       <c r="T3">
-        <v>0.0179845447609663</v>
+        <v>0.2039104661397166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.270951666666666</v>
+        <v>2.738607</v>
       </c>
       <c r="H4">
-        <v>18.812855</v>
+        <v>8.215821</v>
       </c>
       <c r="I4">
-        <v>0.4466720550425397</v>
+        <v>0.2235648590725649</v>
       </c>
       <c r="J4">
-        <v>0.4466720550425397</v>
+        <v>0.223564859072565</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.890486333333333</v>
+        <v>0.1116383333333333</v>
       </c>
       <c r="N4">
-        <v>5.671459</v>
+        <v>0.334915</v>
       </c>
       <c r="O4">
-        <v>0.9442400689667343</v>
+        <v>0.05386116952465989</v>
       </c>
       <c r="P4">
-        <v>0.9442400689667344</v>
+        <v>0.05386116952465989</v>
       </c>
       <c r="Q4">
-        <v>11.85514842282722</v>
+        <v>0.305733521135</v>
       </c>
       <c r="R4">
-        <v>106.696335805445</v>
+        <v>2.751601690215</v>
       </c>
       <c r="S4">
-        <v>0.4217656520588806</v>
+        <v>0.01204146477426412</v>
       </c>
       <c r="T4">
-        <v>0.4217656520588807</v>
+        <v>0.01204146477426412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>18.812855</v>
       </c>
       <c r="I5">
-        <v>0.4466720550425397</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="J5">
-        <v>0.4466720550425397</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1116383333333333</v>
+        <v>0.07058066666666667</v>
       </c>
       <c r="N5">
-        <v>0.334915</v>
+        <v>0.211742</v>
       </c>
       <c r="O5">
-        <v>0.05575993103326565</v>
+        <v>0.03405243646146196</v>
       </c>
       <c r="P5">
-        <v>0.05575993103326566</v>
+        <v>0.03405243646146196</v>
       </c>
       <c r="Q5">
-        <v>0.7000785924805555</v>
+        <v>0.4426079492677777</v>
       </c>
       <c r="R5">
-        <v>6.300707332325</v>
+        <v>3.98347154341</v>
       </c>
       <c r="S5">
-        <v>0.02490640298365905</v>
+        <v>0.01743233129992265</v>
       </c>
       <c r="T5">
-        <v>0.02490640298365906</v>
+        <v>0.01743233129992265</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.240161666666667</v>
+        <v>6.270951666666666</v>
       </c>
       <c r="H6">
-        <v>9.720485</v>
+        <v>18.812855</v>
       </c>
       <c r="I6">
-        <v>0.2307926686810791</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="J6">
-        <v>0.2307926686810791</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>5.671459</v>
       </c>
       <c r="O6">
-        <v>0.9442400689667343</v>
+        <v>0.9120863940138783</v>
       </c>
       <c r="P6">
-        <v>0.9442400689667344</v>
+        <v>0.9120863940138783</v>
       </c>
       <c r="Q6">
-        <v>6.125481348623889</v>
+        <v>11.85514842282722</v>
       </c>
       <c r="R6">
-        <v>55.129332137615</v>
+        <v>106.696335805445</v>
       </c>
       <c r="S6">
-        <v>0.2179236853924388</v>
+        <v>0.4669208387657056</v>
       </c>
       <c r="T6">
-        <v>0.2179236853924388</v>
+        <v>0.4669208387657056</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.240161666666667</v>
+        <v>6.270951666666666</v>
       </c>
       <c r="H7">
-        <v>9.720485</v>
+        <v>18.812855</v>
       </c>
       <c r="I7">
-        <v>0.2307926686810791</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="J7">
-        <v>0.2307926686810791</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,22 +868,208 @@
         <v>0.334915</v>
       </c>
       <c r="O7">
-        <v>0.05575993103326565</v>
+        <v>0.05386116952465989</v>
       </c>
       <c r="P7">
-        <v>0.05575993103326566</v>
+        <v>0.05386116952465989</v>
       </c>
       <c r="Q7">
+        <v>0.7000785924805555</v>
+      </c>
+      <c r="R7">
+        <v>6.300707332325</v>
+      </c>
+      <c r="S7">
+        <v>0.02757293894132291</v>
+      </c>
+      <c r="T7">
+        <v>0.02757293894132291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.240161666666667</v>
+      </c>
+      <c r="H8">
+        <v>9.720485</v>
+      </c>
+      <c r="I8">
+        <v>0.2645090319204839</v>
+      </c>
+      <c r="J8">
+        <v>0.2645090319204839</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07058066666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.211742</v>
+      </c>
+      <c r="O8">
+        <v>0.03405243646146196</v>
+      </c>
+      <c r="P8">
+        <v>0.03405243646146196</v>
+      </c>
+      <c r="Q8">
+        <v>0.2286927705411111</v>
+      </c>
+      <c r="R8">
+        <v>2.05823493487</v>
+      </c>
+      <c r="S8">
+        <v>0.009007177002955089</v>
+      </c>
+      <c r="T8">
+        <v>0.009007177002955091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.240161666666667</v>
+      </c>
+      <c r="H9">
+        <v>9.720485</v>
+      </c>
+      <c r="I9">
+        <v>0.2645090319204839</v>
+      </c>
+      <c r="J9">
+        <v>0.2645090319204839</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.890486333333333</v>
+      </c>
+      <c r="N9">
+        <v>5.671459</v>
+      </c>
+      <c r="O9">
+        <v>0.9120863940138783</v>
+      </c>
+      <c r="P9">
+        <v>0.9120863940138783</v>
+      </c>
+      <c r="Q9">
+        <v>6.125481348623889</v>
+      </c>
+      <c r="R9">
+        <v>55.129332137615</v>
+      </c>
+      <c r="S9">
+        <v>0.2412550891084559</v>
+      </c>
+      <c r="T9">
+        <v>0.2412550891084559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.240161666666667</v>
+      </c>
+      <c r="H10">
+        <v>9.720485</v>
+      </c>
+      <c r="I10">
+        <v>0.2645090319204839</v>
+      </c>
+      <c r="J10">
+        <v>0.2645090319204839</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1116383333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.334915</v>
+      </c>
+      <c r="O10">
+        <v>0.05386116952465989</v>
+      </c>
+      <c r="P10">
+        <v>0.05386116952465989</v>
+      </c>
+      <c r="Q10">
         <v>0.3617262481972223</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>3.255536233775</v>
       </c>
-      <c r="S7">
-        <v>0.0128689832886403</v>
-      </c>
-      <c r="T7">
-        <v>0.0128689832886403</v>
+      <c r="S10">
+        <v>0.01424676580907285</v>
+      </c>
+      <c r="T10">
+        <v>0.01424676580907285</v>
       </c>
     </row>
   </sheetData>
